--- a/Files/Tables/Standard Armors.xlsx
+++ b/Files/Tables/Standard Armors.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="245">
   <si>
     <t>Armors</t>
   </si>
@@ -1054,6 +1054,9 @@
   </si>
   <si>
     <t>This file will provide na overview for the standard armors of the mod</t>
+  </si>
+  <si>
+    <t>BONUS</t>
   </si>
 </sst>
 </file>
@@ -1481,10 +1484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K126"/>
+  <dimension ref="B2:L126"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1497,8 +1500,8 @@
     <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>243</v>
       </c>
@@ -1507,15 +1510,15 @@
       <c r="E3" s="4"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1546,8 +1549,11 @@
       <c r="K8" s="1" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="9" spans="2:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="L8" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>55</v>
       </c>
@@ -1561,7 +1567,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>53</v>
       </c>
@@ -1575,7 +1581,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>54</v>
       </c>
@@ -1589,7 +1595,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>52</v>
       </c>
@@ -1603,7 +1609,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>111</v>
       </c>
@@ -1617,7 +1623,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>109</v>
       </c>
@@ -1631,7 +1637,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>110</v>
       </c>
@@ -1645,7 +1651,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>108</v>
       </c>
